--- a/doc/영화정보.xlsx
+++ b/doc/영화정보.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaew\Desktop\MISS\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSC\Desktop\MISS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42020451-2CDE-43B7-88A9-539690AA1701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-192" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23145" yWindow="-195" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +19,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>김소희</author>
     <author>김동호</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{AD74923B-E29E-466A-AE6E-27562F0D99F4}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{05E8DFEE-625A-42C5-B1D7-BBE81287938E}">
+    <comment ref="H2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{51C716D8-9CA4-4E1B-A166-CEDF0B984338}">
+    <comment ref="J2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="239">
   <si>
     <t xml:space="preserve">사.상.초.유! 도심 속 초대형 재난 발생! 서울 입성과 함께 내 집 마련의 꿈을 이룬 가장 ‘동원(김성균)’ 이사 첫날부터 프로 참견러 ‘만수’(차승원)와 사사건건 부딪힌다. ‘동원’은 자가취득을 기념하며 직장 동료들을 집들이에 초대하지만 행복한 단꿈도 잠시, 순식간에 빌라 전체가 땅 속으로 떨어지고 만다.  마주치기만 하면 투닥거리는 빌라 주민 ‘만수’와 ‘동원’, ‘동원’의 집들이에 왔던 ‘김대리’(이광수)와 인턴사원 ‘은주’(김혜준)까지! 지하 500m 싱크홀 속으로 떨어진 이들은 과연 무사히 빠져나갈 수 있을까? “한 500m 정도는 떨어진 것 같아” “우리… 나갈 수 있을까요?” </t>
   </si>
@@ -336,10 +335,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=216482</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000085/85852/85852203829_727.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,10 +366,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=187347</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://movie-phinf.pstatic.net/20220614_246/1655169168086vXUmc_JPEG/movie_image.jpg?type=m665_443_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -423,10 +414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=184519</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>신창환, 류정우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -439,10 +426,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=213487</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://movie-phinf.pstatic.net/20220523_40/16532827073234cerU_JPEG/movie_image.jpg?type=m665_443_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -459,41 +442,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그레이 맨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>액션, 모험</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.07.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 누구도 실체를 몰라 ‘그레이 맨’으로 불리는 CIA의 암살 전문 요원이 우연히 CIA의 감추고 싶은 비밀을 알게 되고, CIA의 사주를 받은 사이코패스 전 동료에게 쫓기며 시작되는 액션 블록버스터</t>
-  </si>
-  <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=216495</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220427_189/16510412904345m9b4_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220427_194/1651041261766e3HKo_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220427_290/1651041163102VXACx_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>핸썸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -506,18 +454,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>범죄 소탕 작전 잠입수사가 한창, 착하고 순한 성격과는 달리 얼굴만 보면 조폭이 더 어울리는 정식 경찰 ‘노미남’. 어느 날, 동료 형사의 싸움을 말리다 사고를 당해 수술 후 한달만에 깨어났다. 그런데, 깨어나 처음 본 내 얼굴이 달라졌다?! 조폭 같은 NO미남에서 세계 최고의 미남이 되었다! 나를 보는 남들의 시선도 달라져 보이는 나르시시즘에 빠진 ‘노미남’. 얼굴만 믿고 나서는 강력반 제일가는 골치덩이가 되어 결국 변두리 미용실 잠입수사로 밀리게 되는데. … 못생긴 나에게 찾아온 초대형 기회! 과연 그 결과는?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=217072</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>감동주의보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -534,10 +474,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=212082</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://movie-phinf.pstatic.net/20220524_130/1653359016894Ni625_JPEG/movie_image.jpg?type=m665_443_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -546,82 +482,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>룸 쉐어링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이순성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드라마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>새벽부터 다시 새벽까지 알바 스케줄로 꽉 찬 대학생 '지웅'은 월세를 아끼려 룸 쉐어링을 신청한다. 도착하자마자 보게 된 건 온갖 라인으로 꽉 채워진 집안 꼬락서니. 그리고 까다롭고 별난 할머니 '금분'의 각종 금기 사항(?)들! '금분'은 밥은 각자 해결, 물과 전기 절약 필수, 정갈하게 구분해둔 알록달록 각자의 라인 안에서만 생활하기 등 나혼산 라이프를 꿈꾸던 '지웅'에게는 너무나 불가능한 규칙들을 읊기 시작하고, '지웅'은 울며 겨자 먹기로 깐깐한 규칙들을 받아들이기로 하는데... 어디 하나 닮은 구석 없는 '금분'과 '지웅'의 물러설 수 없는 동거가 시작된다! "두~~~~~~~~~~~~~~~~~~~~~~~~~~~둥"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=216171</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220526_261/1653528203770T8VzJ_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220602_231/1654134272212PNWcs_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>위대한 침묵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>송상민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다큐멘터리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017년 3월 10일 대한민국 제18대 대통령 박근혜 탄핵 결정 국민들은 빙산의 일각과도 같은 언론의 정보 속에 진정한 ‘알 권리’를 잃었다 대한민국 역사상 초유의 사태 속에서 우리가 놓친 것은 무엇인가? 아직 공개되지 않은 국과수와 검찰 조사자료 아무도 모르는 모든 증거들이 낱낱이 공개된다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie.naver.com/movie/bi/mi/photoViewPopup.naver?movieCode=213504</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220602_263/1654136648965dwISQ_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220602_18/1654136689433N4m1h_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220602_253/1654136575540rfAXr_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220602_297/1654136562996XuVsI_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220602_257/1654134188645AiAvd_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://movie-phinf.pstatic.net/20220602_19/1654134225661rwP0v_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://movie-phinf.pstatic.net/20220524_6/1653359061021vMVXr_JPEG/movie_image.jpg?type=m665_443_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -630,10 +490,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://movie-phinf.pstatic.net/20220427_82/1651041189450SHLFl_JPEG/movie_image.jpg?type=m665_443_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2022.06.29</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -666,14 +522,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>안소니 루소, 조 루소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이언 고슬리 , 크리스 에반스, 아나 디 아르마스, 레게장 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>신현준, 박솔미</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -690,10 +538,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나문희, 최우성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://movie-phinf.pstatic.net/20220517_160/1652750945934UB6en_JPEG/movie_image.jpg?type=m665_443_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1044,9 +888,6 @@
     <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000085/85977/85977203682_727.jpg</t>
   </si>
   <si>
-    <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000085/85977/85977203681_727.jpg</t>
-  </si>
-  <si>
     <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000085/85977/85977203680_727.jpg</t>
   </si>
   <si>
@@ -1063,10 +904,6 @@
   </si>
   <si>
     <t>2022.06.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공룡들의 터전이었던 이슬라 누블라 섬이 파괴된 후, 마침내 공룡들은 섬을 벗어나 세상 밖으로 출몰한다. 지상에 함께 존재해선 안 될 위협적 생명체인 공룡의 등장으로 인류 역사상 겪어보지 못한 사상 최악의 위기를 맞이한 인간들. 지구의 최상위 포식자 자리를 걸고 인간과 공룡의 최후의 사투가 펼쳐진다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1224,15 +1061,59 @@
   <si>
     <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000085/85715/85715201959_727.jpg</t>
   </si>
+  <si>
+    <t>애니메이션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/Poster/000085/85881/85881_1000.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/Poster/000085/85999/85999_1000.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/Poster/000085/85465/85465_1000.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/Poster/000085/85951/85951_1000.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/Poster/000086/86014/86014_1000.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000086/86014/86014204126_727.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000086/86014/86014204125_727.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000086/86014/86014204121_727.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000086/86014/86014204118_727.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/Poster/000085/85992/85992_320.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000085/85977/85977203678_727.jpg</t>
+  </si>
+  <si>
+    <t>https://img.cgv.co.kr/Movie/Thumbnail/StillCut/000085/85977/85977203675_727.jpg</t>
+  </si>
+  <si>
+    <t>공룡들의 터전이었던 이슬라 누블라 섬이 파괴된 후, 마침내 공룡들은 섬을 벗어나 세상 밖으로 출몰한다. 지상에 함께 존재해선 안 될 위협적 생명체인 공룡의 등장으로 인류 역사상 겪어보지 못한 사상 최악의 위기를 맞이한 인간들. 지구의 최상위 포식자 자리를 걸고 인간과 공룡의 최후의 사투가 펼쳐진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1419,19 +1300,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="하이퍼링크" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1737,15 +1618,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:P29"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
@@ -1762,56 +1643,56 @@
     <col min="17" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:16" ht="15" customHeight="1">
+      <c r="B2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+    <row r="3" spans="2:16" ht="15" customHeight="1">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="2" t="s">
         <v>51</v>
       </c>
@@ -1828,7 +1709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1859,23 +1740,23 @@
       <c r="K4" s="3">
         <v>148</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>160</v>
+      <c r="L4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1898,7 +1779,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
@@ -1907,22 +1788,22 @@
         <v>97</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1954,22 +1835,22 @@
         <v>114</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="15" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -2000,23 +1881,23 @@
       <c r="K7" s="3">
         <v>137</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>171</v>
+      <c r="L7" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="15" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -2048,22 +1929,22 @@
         <v>129</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="15" customHeight="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -2077,7 +1958,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="G9" s="7">
         <v>44699</v>
@@ -2086,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
@@ -2095,22 +1976,22 @@
         <v>106</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -2142,22 +2023,22 @@
         <v>130</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -2189,22 +2070,22 @@
         <v>109</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -2236,22 +2117,22 @@
         <v>138</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="15" customHeight="1">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -2268,7 +2149,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="H13" s="3">
         <v>15</v>
@@ -2283,45 +2164,45 @@
         <v>107</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="M13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="O13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="15" customHeight="1">
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H14" s="3">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="3">
         <v>2</v>
@@ -2330,36 +2211,36 @@
         <v>118</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15" customHeight="1">
       <c r="B15" s="3">
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="G15" s="4">
         <v>2022.08</v>
@@ -2368,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
@@ -2377,43 +2258,45 @@
         <v>141</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="M15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>86</v>
-      </c>
     </row>
-    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="15" customHeight="1">
       <c r="B16" s="3">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
@@ -2422,532 +2305,403 @@
         <v>79</v>
       </c>
       <c r="L16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M16" s="5" t="s">
+    </row>
+    <row r="17" spans="2:16" ht="15" customHeight="1">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="E17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="G17" s="4">
+        <v>2022.07</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>93</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
-    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="18" spans="2:16" ht="15" customHeight="1">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="E18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>122</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="4">
-        <v>2022.07</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="15" customHeight="1">
       <c r="B19" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>152</v>
+        <v>163</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>113</v>
+        <v>165</v>
+      </c>
+      <c r="H19" s="3">
+        <v>19</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="3">
-        <v>98</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="15" customHeight="1">
       <c r="B20" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="3">
-        <v>93</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="15" customHeight="1">
       <c r="B21" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="F21" s="6" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="H21" s="3">
         <v>12</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="3">
-        <v>124</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="O21" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>134</v>
+      <c r="L21" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="15" customHeight="1">
       <c r="B22" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22" s="3">
-        <v>19</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="J22" s="3">
         <v>2</v>
       </c>
       <c r="K22" s="3">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="L22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="15" customHeight="1">
+      <c r="B23" s="3">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="G23" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>212</v>
+      <c r="H23" s="3">
+        <v>12</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="J23" s="3">
         <v>2</v>
       </c>
       <c r="K23" s="3">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="L23" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="15" customHeight="1">
+      <c r="B24" s="3">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="G24" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="H24" s="3">
         <v>12</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>222</v>
+      <c r="I24" s="12" t="s">
+        <v>219</v>
       </c>
       <c r="J24" s="3">
         <v>2</v>
       </c>
       <c r="K24" s="3">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2</v>
-      </c>
-      <c r="K25" s="3">
-        <v>105</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>244</v>
-      </c>
+    <row r="25" spans="2:16" ht="15" customHeight="1">
+      <c r="B25" s="10"/>
+      <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <v>23</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H26" s="3">
-        <v>12</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2</v>
-      </c>
-      <c r="K26" s="3">
-        <v>147</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <v>24</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="3">
-        <v>12</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3">
-        <v>126</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="15"/>
+    <row r="26" spans="2:16" ht="15" customHeight="1">
+      <c r="I26" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2965,108 +2719,87 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="O13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="P13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="O14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="O15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="P15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="O16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="P16" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L17" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="O17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P17" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M19" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="N19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="O19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="P19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="O20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="P20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="O21" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="P21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M7" r:id="rId43" xr:uid="{8C7D4B0C-A997-4A73-B207-578920FC57AC}"/>
-    <hyperlink ref="N7" r:id="rId44" xr:uid="{820B4E47-1532-42FA-AEC3-64E5C46A00FD}"/>
-    <hyperlink ref="O7" r:id="rId45" xr:uid="{EDD33BE0-9C71-48EF-8165-986E29E885C7}"/>
-    <hyperlink ref="P7" r:id="rId46" xr:uid="{3D3F707C-20BF-4480-9733-F824458A8C48}"/>
-    <hyperlink ref="P4" r:id="rId47" xr:uid="{4A0017DE-8A2C-4ECB-B56B-7B0E4D8E7129}"/>
-    <hyperlink ref="P5" r:id="rId48" xr:uid="{30093168-B128-4309-AB9F-7D17B6396D23}"/>
-    <hyperlink ref="P6" r:id="rId49" xr:uid="{97F14F93-289E-4636-8FE7-303BE649876C}"/>
-    <hyperlink ref="P8" r:id="rId50" xr:uid="{6A0BBF88-383A-404B-95D3-F641B9903035}"/>
-    <hyperlink ref="P9" r:id="rId51" xr:uid="{5A6EF9B9-7BEB-4AEE-887C-54D4FB654FAC}"/>
-    <hyperlink ref="P10" r:id="rId52" xr:uid="{BF39A841-ABFE-45FA-921C-9D46359D0053}"/>
-    <hyperlink ref="P11" r:id="rId53" xr:uid="{36D0182B-C050-43D8-A053-B94B640691B5}"/>
-    <hyperlink ref="P12" r:id="rId54" xr:uid="{C4F16FB1-9A2F-44E8-A1A5-51DBE2865E2D}"/>
-    <hyperlink ref="L4" r:id="rId55" xr:uid="{2E8B08FD-75C0-4621-AB64-4632A5871EEE}"/>
-    <hyperlink ref="L5" r:id="rId56" xr:uid="{D7EDA828-F469-45CD-B809-DB849A678BD5}"/>
-    <hyperlink ref="L6" r:id="rId57" xr:uid="{1430DE47-5E2D-4030-B84A-1D0F86D56F0B}"/>
-    <hyperlink ref="L7" r:id="rId58" xr:uid="{8AF5389D-05DB-4384-A743-7E4B1D70695F}"/>
-    <hyperlink ref="L8" r:id="rId59" xr:uid="{E199FA97-74EF-45A3-BB13-BA577BF57322}"/>
-    <hyperlink ref="L9" r:id="rId60" xr:uid="{AEE0D8DD-7A02-4DFE-867F-1A7224FEF033}"/>
-    <hyperlink ref="L10" r:id="rId61" xr:uid="{8D73B8BB-0A75-4E03-8E0B-22FF2A573875}"/>
-    <hyperlink ref="L11" r:id="rId62" xr:uid="{FFB8164B-2DF5-4143-AA3E-2B88EE65D0B7}"/>
-    <hyperlink ref="M4" r:id="rId63" xr:uid="{54D53799-EE8B-4856-ABC5-7490E9EA535B}"/>
-    <hyperlink ref="M5" r:id="rId64" xr:uid="{3E27E53D-E84B-410F-8164-020E89FE0A7B}"/>
-    <hyperlink ref="M6" r:id="rId65" xr:uid="{A4B83AE0-2601-4765-9596-6E6799034A59}"/>
-    <hyperlink ref="M8" r:id="rId66" xr:uid="{00EE9C2D-F1FE-4B23-953C-C2D478B22F83}"/>
-    <hyperlink ref="M9" r:id="rId67" xr:uid="{456947A3-F811-459B-A133-D3D5966F83DB}"/>
-    <hyperlink ref="M10" r:id="rId68" xr:uid="{21BAF465-94E8-4423-9DA3-41CC724B7BE9}"/>
-    <hyperlink ref="M11" r:id="rId69" xr:uid="{8B8262BE-668F-4800-892A-8D4D7F472275}"/>
-    <hyperlink ref="N4" r:id="rId70" xr:uid="{DF081FA1-7DB3-4369-9B09-DBA79670525D}"/>
-    <hyperlink ref="N5" r:id="rId71" xr:uid="{C3687E9D-7588-4560-A020-221F6D03244D}"/>
-    <hyperlink ref="N6" r:id="rId72" xr:uid="{4B583AEC-5509-467B-98C9-E4F5D47E8B0D}"/>
-    <hyperlink ref="N8" r:id="rId73" xr:uid="{EC94F480-1945-4A8E-AEB1-34733C90DFBB}"/>
-    <hyperlink ref="N9" r:id="rId74" xr:uid="{D6C0D839-994C-487D-BCB9-3AA47E430F15}"/>
-    <hyperlink ref="N10" r:id="rId75" xr:uid="{0FB7BBA9-202E-4D89-804C-FF7625843814}"/>
-    <hyperlink ref="N11" r:id="rId76" xr:uid="{C621A920-8CED-4CDC-9FD0-7DCFB5001883}"/>
-    <hyperlink ref="N12" r:id="rId77" xr:uid="{20ACAE82-736B-4CAC-86EE-C0659DFE4B2F}"/>
-    <hyperlink ref="O4" r:id="rId78" xr:uid="{68BCB730-DCF5-45CA-AB4D-A036700ADC77}"/>
-    <hyperlink ref="O5" r:id="rId79" xr:uid="{CD80C54C-15A1-49E4-A301-BBE69A0A771B}"/>
-    <hyperlink ref="O6" r:id="rId80" xr:uid="{397BF6C5-1E10-4C98-89A6-1EF939941112}"/>
-    <hyperlink ref="O8" r:id="rId81" xr:uid="{F59CCAE2-487B-4E01-8037-0CEE2D100522}"/>
-    <hyperlink ref="O9" r:id="rId82" xr:uid="{D4A2937C-2172-4C10-B56E-4482BA57429D}"/>
-    <hyperlink ref="O10" r:id="rId83" xr:uid="{4D3C6EE7-28DC-43E8-AD07-F94CDE78628F}"/>
-    <hyperlink ref="O11" r:id="rId84" xr:uid="{2D875B57-7023-4299-98FF-5DDE0E44647B}"/>
-    <hyperlink ref="O12" r:id="rId85" xr:uid="{52F33FDB-CAEA-49EE-B63C-558BF71BB200}"/>
-    <hyperlink ref="L12" r:id="rId86" xr:uid="{B0EEA72B-2023-4B8B-AEC8-4C74A2DE1ED0}"/>
-    <hyperlink ref="L22" r:id="rId87" xr:uid="{CF63D9A7-A627-412C-A0FD-819017471B74}"/>
-    <hyperlink ref="M22" r:id="rId88" xr:uid="{F74D2502-4666-41EC-AF20-D08AA787B0E6}"/>
-    <hyperlink ref="N22" r:id="rId89" xr:uid="{077E0E61-AFFC-4376-83A6-CFED10D0A343}"/>
-    <hyperlink ref="O22" r:id="rId90" xr:uid="{5F514E0A-3EE2-48D8-B031-EA5BB8B02386}"/>
-    <hyperlink ref="P22" r:id="rId91" xr:uid="{91DE8ABD-222C-476F-9941-0918B055CC50}"/>
-    <hyperlink ref="L23" r:id="rId92" xr:uid="{11C301CA-1E80-4D9C-8279-7F0833D4715B}"/>
-    <hyperlink ref="M23" r:id="rId93" xr:uid="{161DDA0C-1851-49B5-B0F8-C54BCC844218}"/>
-    <hyperlink ref="N23" r:id="rId94" xr:uid="{CAA153B1-F910-4722-ACC7-47A8CC6B0A81}"/>
-    <hyperlink ref="O23" r:id="rId95" xr:uid="{35445E03-CA79-4D04-BBC4-79A6CA98EA56}"/>
-    <hyperlink ref="P23" r:id="rId96" xr:uid="{1C6A41B4-A4BF-41BC-B9F9-E9FA6B161C29}"/>
-    <hyperlink ref="L24" r:id="rId97" xr:uid="{FD9F172E-BF0C-4C9D-847B-E1E9CF64EB8A}"/>
-    <hyperlink ref="M24" r:id="rId98" xr:uid="{0F74D7BD-1547-48E8-A47E-86334D06CD1E}"/>
-    <hyperlink ref="N24" r:id="rId99" xr:uid="{6DA8FE04-FDFC-4605-8034-BC15601F2840}"/>
+    <hyperlink ref="M12" r:id="rId1"/>
+    <hyperlink ref="M13" r:id="rId2"/>
+    <hyperlink ref="N13" r:id="rId3"/>
+    <hyperlink ref="O13" r:id="rId4"/>
+    <hyperlink ref="P13" r:id="rId5"/>
+    <hyperlink ref="N14" r:id="rId6"/>
+    <hyperlink ref="O14" r:id="rId7"/>
+    <hyperlink ref="P14" r:id="rId8"/>
+    <hyperlink ref="M14" r:id="rId9"/>
+    <hyperlink ref="M15" r:id="rId10"/>
+    <hyperlink ref="N15" r:id="rId11"/>
+    <hyperlink ref="O15" r:id="rId12"/>
+    <hyperlink ref="P15" r:id="rId13"/>
+    <hyperlink ref="M16" r:id="rId14"/>
+    <hyperlink ref="N16" r:id="rId15"/>
+    <hyperlink ref="O16" r:id="rId16"/>
+    <hyperlink ref="P16" r:id="rId17"/>
+    <hyperlink ref="M18" r:id="rId18"/>
+    <hyperlink ref="N18" r:id="rId19"/>
+    <hyperlink ref="O18" r:id="rId20"/>
+    <hyperlink ref="P18" r:id="rId21"/>
+    <hyperlink ref="M7" r:id="rId22"/>
+    <hyperlink ref="N7" r:id="rId23"/>
+    <hyperlink ref="O7" r:id="rId24"/>
+    <hyperlink ref="P7" r:id="rId25"/>
+    <hyperlink ref="P4" r:id="rId26"/>
+    <hyperlink ref="P5" r:id="rId27"/>
+    <hyperlink ref="P6" r:id="rId28"/>
+    <hyperlink ref="P8" r:id="rId29"/>
+    <hyperlink ref="P9" r:id="rId30"/>
+    <hyperlink ref="P10" r:id="rId31"/>
+    <hyperlink ref="P11" r:id="rId32"/>
+    <hyperlink ref="P12" r:id="rId33"/>
+    <hyperlink ref="L4" r:id="rId34"/>
+    <hyperlink ref="L5" r:id="rId35"/>
+    <hyperlink ref="L6" r:id="rId36"/>
+    <hyperlink ref="L7" r:id="rId37"/>
+    <hyperlink ref="L8" r:id="rId38"/>
+    <hyperlink ref="L9" r:id="rId39"/>
+    <hyperlink ref="L10" r:id="rId40"/>
+    <hyperlink ref="L11" r:id="rId41"/>
+    <hyperlink ref="M4" r:id="rId42"/>
+    <hyperlink ref="M5" r:id="rId43"/>
+    <hyperlink ref="M6" r:id="rId44"/>
+    <hyperlink ref="M8" r:id="rId45"/>
+    <hyperlink ref="M9" r:id="rId46"/>
+    <hyperlink ref="M10" r:id="rId47"/>
+    <hyperlink ref="M11" r:id="rId48"/>
+    <hyperlink ref="N4" r:id="rId49"/>
+    <hyperlink ref="N5" r:id="rId50"/>
+    <hyperlink ref="N6" r:id="rId51"/>
+    <hyperlink ref="N8" r:id="rId52"/>
+    <hyperlink ref="N9" r:id="rId53"/>
+    <hyperlink ref="N10" r:id="rId54"/>
+    <hyperlink ref="N11" r:id="rId55"/>
+    <hyperlink ref="N12" r:id="rId56"/>
+    <hyperlink ref="O4" r:id="rId57"/>
+    <hyperlink ref="O5" r:id="rId58"/>
+    <hyperlink ref="O6" r:id="rId59"/>
+    <hyperlink ref="O8" r:id="rId60"/>
+    <hyperlink ref="O9" r:id="rId61"/>
+    <hyperlink ref="O10" r:id="rId62"/>
+    <hyperlink ref="O11" r:id="rId63"/>
+    <hyperlink ref="O12" r:id="rId64"/>
+    <hyperlink ref="L12" r:id="rId65"/>
+    <hyperlink ref="L19" r:id="rId66"/>
+    <hyperlink ref="M19" r:id="rId67"/>
+    <hyperlink ref="N19" r:id="rId68"/>
+    <hyperlink ref="O19" r:id="rId69"/>
+    <hyperlink ref="P19" r:id="rId70"/>
+    <hyperlink ref="L20" r:id="rId71"/>
+    <hyperlink ref="M20" r:id="rId72"/>
+    <hyperlink ref="N20" r:id="rId73"/>
+    <hyperlink ref="O20" r:id="rId74"/>
+    <hyperlink ref="P20" r:id="rId75"/>
+    <hyperlink ref="L21" r:id="rId76"/>
+    <hyperlink ref="M21" r:id="rId77"/>
+    <hyperlink ref="N21" r:id="rId78"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId100"/>
-  <legacyDrawing r:id="rId101"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId79"/>
+  <legacyDrawing r:id="rId80"/>
 </worksheet>
 </file>